--- a/project/ip_plan.xlsx
+++ b/project/ip_plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="88">
   <si>
     <t>hostname</t>
   </si>
@@ -226,13 +226,70 @@
   </si>
   <si>
     <t>p2p pod02-sp-02</t>
+  </si>
+  <si>
+    <t>pod01-host-01</t>
+  </si>
+  <si>
+    <t>10.254.1.1</t>
+  </si>
+  <si>
+    <t>10.254.1.2</t>
+  </si>
+  <si>
+    <t>10.254.2.1</t>
+  </si>
+  <si>
+    <t>10.254.2.2</t>
+  </si>
+  <si>
+    <t>10.99.99.1</t>
+  </si>
+  <si>
+    <t>10.99.99.2</t>
+  </si>
+  <si>
+    <t>pod02-host-01</t>
+  </si>
+  <si>
+    <t>/30</t>
+  </si>
+  <si>
+    <t>peering vlan 40</t>
+  </si>
+  <si>
+    <t>peering vlan 50</t>
+  </si>
+  <si>
+    <t>pod02-lf-02</t>
+  </si>
+  <si>
+    <t>pod02-lf-01</t>
+  </si>
+  <si>
+    <t>192.168.40.6</t>
+  </si>
+  <si>
+    <t>192.168.50.6</t>
+  </si>
+  <si>
+    <t>192.168.40.2</t>
+  </si>
+  <si>
+    <t>192.168.50.2</t>
+  </si>
+  <si>
+    <t>underlay - lo0</t>
+  </si>
+  <si>
+    <t>overlay - lo1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +308,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -340,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -381,9 +446,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -429,6 +491,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,8 +767,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="I1:M57" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="I1:M57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="I1:M59" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="I1:M59"/>
   <tableColumns count="5">
     <tableColumn id="1" name="hostname" dataDxfId="11"/>
     <tableColumn id="2" name="ip address" dataDxfId="10"/>
@@ -708,8 +781,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E57" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A1:E57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E59" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A1:E59"/>
   <tableColumns count="5">
     <tableColumn id="1" name="hostname" dataDxfId="4"/>
     <tableColumn id="2" name="ip address" dataDxfId="3"/>
@@ -984,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,14 +1113,14 @@
       <c r="A2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="45" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>5</v>
+      <c r="D2" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="E2" s="12">
         <v>4201000000</v>
@@ -1055,21 +1128,21 @@
       <c r="I2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="45" t="s">
         <v>50</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="16" t="s">
-        <v>5</v>
+      <c r="L2" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="M2" s="12">
         <v>4201000000</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
@@ -1080,7 +1153,7 @@
         <v>65</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="I3" s="21"/>
+      <c r="I3" s="20"/>
       <c r="J3" s="14" t="s">
         <v>12</v>
       </c>
@@ -1093,7 +1166,7 @@
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
@@ -1104,7 +1177,7 @@
         <v>66</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="I4" s="21"/>
+      <c r="I4" s="20"/>
       <c r="J4" s="14" t="s">
         <v>13</v>
       </c>
@@ -1117,7 +1190,7 @@
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
@@ -1128,7 +1201,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="I5" s="41"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="14" t="s">
         <v>14</v>
       </c>
@@ -1141,7 +1214,7 @@
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
@@ -1152,7 +1225,7 @@
         <v>68</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="I6" s="41"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="14" t="s">
         <v>15</v>
       </c>
@@ -1165,16 +1238,16 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="35"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="35"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="34"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -1186,15 +1259,15 @@
       <c r="C8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>5</v>
+      <c r="D8" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="E8" s="17">
         <v>4201010000</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="13" t="s">
         <v>29</v>
       </c>
@@ -1204,15 +1277,15 @@
       <c r="K8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="16" t="s">
-        <v>5</v>
+      <c r="L8" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="M8" s="17">
         <v>4201020000</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
@@ -1223,7 +1296,7 @@
         <v>59</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="14" t="s">
         <v>20</v>
       </c>
@@ -1236,7 +1309,7 @@
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="14" t="s">
         <v>17</v>
       </c>
@@ -1247,7 +1320,7 @@
         <v>60</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="I10" s="29"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="14" t="s">
         <v>21</v>
       </c>
@@ -1329,8 +1402,8 @@
       <c r="C14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>5</v>
+      <c r="D14" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="E14" s="17">
         <v>4201010000</v>
@@ -1344,15 +1417,15 @@
       <c r="K14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="16" t="s">
-        <v>5</v>
+      <c r="L14" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="M14" s="17">
         <v>4201020000</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="14" t="s">
         <v>18</v>
       </c>
@@ -1376,7 +1449,7 @@
       <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="14" t="s">
         <v>19</v>
       </c>
@@ -1448,11 +1521,11 @@
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
       <c r="I19" s="13"/>
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
@@ -1460,645 +1533,737 @@
       <c r="M19" s="17"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="40"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="39"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="25">
+        <v>4201010001</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" s="25">
+        <v>4201020001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="25"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="25"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="25">
+        <v>4201010002</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M26" s="25">
+        <v>4201020002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="M27" s="25"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="25"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="25"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="39"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="26">
-        <v>4201010001</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="24" t="s">
+      <c r="E31" s="25">
+        <v>65001</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K31" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="L31" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="26">
-        <v>4201020001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="26"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="26"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="26">
-        <v>4201010002</v>
-      </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L25" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="M25" s="26">
-        <v>4201020002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="26"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" s="26"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="40"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="26"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="26"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="26"/>
+      <c r="M31" s="25">
+        <v>65002</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="26"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="M32" s="25"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="26"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L33" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="M33" s="25"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="26"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="25"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="26"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="25"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="26"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="25"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="26"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="25"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="26"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="25"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="26"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="25"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="26"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="25"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="26"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="25"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="26"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="25"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="26"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="25"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="26"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="25"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="26"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="25"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="26"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="25"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="26"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="25"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="26"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="25"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="26"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="25"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="26"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="25"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="26"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="25"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="26"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="25"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="2"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="11"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="25"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="2"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="11"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="25"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="10"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="10"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="2"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="2"/>
       <c r="M55" s="11"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="10"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="10"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="2"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="2"/>
       <c r="M56" s="11"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="2"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="2"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="10"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="10"/>
       <c r="M57" s="11"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="10"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="11"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="2"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project/ip_plan.xlsx
+++ b/project/ip_plan.xlsx
@@ -267,22 +267,22 @@
     <t>pod02-lf-01</t>
   </si>
   <si>
-    <t>192.168.40.6</t>
-  </si>
-  <si>
-    <t>192.168.50.6</t>
-  </si>
-  <si>
-    <t>192.168.40.2</t>
-  </si>
-  <si>
-    <t>192.168.50.2</t>
-  </si>
-  <si>
     <t>underlay - lo0</t>
   </si>
   <si>
     <t>overlay - lo1</t>
+  </si>
+  <si>
+    <t>192.168.40.1</t>
+  </si>
+  <si>
+    <t>192.168.50.1</t>
+  </si>
+  <si>
+    <t>192.168.40.5</t>
+  </si>
+  <si>
+    <t>192.168.50.5</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1049,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E2" s="12">
         <v>4201000000</v>
@@ -1135,7 +1135,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M2" s="12">
         <v>4201000000</v>
@@ -1260,7 +1260,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E8" s="17">
         <v>4201010000</v>
@@ -1278,7 +1278,7 @@
         <v>4</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M8" s="17">
         <v>4201020000</v>
@@ -1403,7 +1403,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E14" s="17">
         <v>4201010000</v>
@@ -1418,7 +1418,7 @@
         <v>4</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M14" s="17">
         <v>4201020000</v>
@@ -1555,7 +1555,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E21" s="25">
         <v>4201010001</v>
@@ -1570,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M21" s="25">
         <v>4201020001</v>
@@ -1585,7 +1585,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E22" s="25"/>
       <c r="I22" s="41"/>
@@ -1596,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M22" s="25"/>
     </row>
@@ -1623,7 +1623,7 @@
         <v>3</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="M23" s="25"/>
     </row>
@@ -1650,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="M24" s="25"/>
     </row>
@@ -1680,7 +1680,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E26" s="25">
         <v>4201010002</v>
@@ -1698,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M26" s="25">
         <v>4201020002</v>
@@ -1713,7 +1713,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="26"/>
@@ -1727,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="L27" s="43" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M27" s="25"/>
     </row>
@@ -1754,7 +1754,7 @@
         <v>3</v>
       </c>
       <c r="L28" s="24" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="M28" s="25"/>
     </row>
@@ -1781,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="M29" s="25"/>
     </row>
@@ -1852,7 +1852,7 @@
       <c r="H32" s="26"/>
       <c r="I32" s="29"/>
       <c r="J32" s="22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K32" s="23" t="s">
         <v>77</v>
@@ -1879,7 +1879,7 @@
       <c r="H33" s="26"/>
       <c r="I33" s="30"/>
       <c r="J33" s="22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K33" s="23" t="s">
         <v>77</v>
